--- a/evacout/onedoorpeople.xlsx
+++ b/evacout/onedoorpeople.xlsx
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
